--- a/pycba/examples/example_bypass.xlsx
+++ b/pycba/examples/example_bypass.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="road_params" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="50">
   <si>
     <t xml:space="preserve">id_section</t>
   </si>
@@ -96,16 +96,28 @@
     <t xml:space="preserve">item</t>
   </si>
   <si>
-    <t xml:space="preserve">land</t>
+    <t xml:space="preserve">planning and design</t>
   </si>
   <si>
     <t xml:space="preserve">preparation</t>
   </si>
   <si>
-    <t xml:space="preserve">pavements</t>
+    <t xml:space="preserve">land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site preparation</t>
   </si>
   <si>
     <t xml:space="preserve">construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavements asphalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavements concrete</t>
   </si>
   <si>
     <t xml:space="preserve">bridges</t>
@@ -117,22 +129,37 @@
     <t xml:space="preserve">buildings</t>
   </si>
   <si>
-    <t xml:space="preserve">slope_stabilisation</t>
+    <t xml:space="preserve">slope stabilisation</t>
   </si>
   <si>
-    <t xml:space="preserve">retaining_walls</t>
+    <t xml:space="preserve">retaining walls</t>
   </si>
   <si>
-    <t xml:space="preserve">noise_barriers</t>
+    <t xml:space="preserve">noise barriers</t>
   </si>
   <si>
-    <t xml:space="preserve">safety_features</t>
+    <t xml:space="preserve">safety features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">induced investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
   </si>
   <si>
     <t xml:space="preserve">supervision</t>
   </si>
   <si>
-    <t xml:space="preserve">planning_design</t>
+    <t xml:space="preserve">other services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contingencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price adjustments</t>
   </si>
   <si>
     <t xml:space="preserve">vehicle</t>
@@ -256,11 +283,11 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.5"/>
@@ -496,15 +523,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="11.67"/>
   </cols>
   <sheetData>
@@ -533,13 +560,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,33 +574,33 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>14000000</v>
+        <v>300000</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>14000000</v>
+        <v>300000</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>14000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="0" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +608,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -598,24 +625,24 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
+      <c r="B7" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -632,16 +659,16 @@
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,16 +676,16 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,7 +693,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -683,16 +710,16 @@
         <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -700,18 +727,172 @@
         <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>150000</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -734,14 +915,14 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>2020</v>
@@ -839,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>9000</v>
@@ -966,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>10000</v>
@@ -1093,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8000</v>
@@ -1220,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -1318,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -1416,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -1514,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1000</v>
@@ -1641,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1000</v>
@@ -1768,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1000</v>
@@ -1895,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>20</v>
@@ -2022,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>20</v>
@@ -2149,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>20</v>
@@ -2293,14 +2474,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>2020</v>
@@ -2398,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>9000</v>
@@ -2525,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>10000</v>
@@ -2652,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8000</v>
@@ -2779,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2903,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3001,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3099,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3197,7 +3378,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3295,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1000</v>
@@ -3422,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1000</v>
@@ -3549,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1000</v>
@@ -3676,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3800,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>20</v>
@@ -3926,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>20</v>
@@ -4052,7 +4233,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>20</v>
@@ -4178,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -4320,14 +4501,14 @@
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>2020</v>
@@ -4425,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
@@ -4551,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>50</v>
@@ -4677,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
@@ -4803,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
@@ -4929,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
@@ -5055,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
@@ -5181,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>70</v>
@@ -5307,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>50</v>
@@ -5433,7 +5614,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>70</v>
@@ -5559,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>70</v>
@@ -5685,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>50</v>
@@ -5811,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>70</v>
@@ -5954,14 +6135,14 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>2020</v>
@@ -6059,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
@@ -6186,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>50</v>
@@ -6313,7 +6494,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
@@ -6440,7 +6621,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>85</v>
@@ -6567,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>80</v>
@@ -6694,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>50</v>
@@ -6821,7 +7002,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
@@ -6948,7 +7129,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>85</v>
@@ -7075,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>70</v>
@@ -7202,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>50</v>
@@ -7329,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>70</v>
@@ -7456,7 +7637,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>80</v>
@@ -7583,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>70</v>
@@ -7710,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>50</v>
@@ -7837,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>70</v>
@@ -7964,7 +8145,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>85</v>
